--- a/AES_AIAC/report/performanceAnalysis.xlsx
+++ b/AES_AIAC/report/performanceAnalysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>File Size(in MB)</t>
   </si>
@@ -30,10 +30,16 @@
     <t>ECB(em ms)(Java AIAC)</t>
   </si>
   <si>
-    <t>CBC(em ms) (Java Crypto)</t>
+    <t>CIFRA ECB</t>
   </si>
   <si>
-    <t>CBC(em ms) (Java AIAC)</t>
+    <t>DECIFRA ECB</t>
+  </si>
+  <si>
+    <t>CIFRA CBC</t>
+  </si>
+  <si>
+    <t>DECIFRA CBC</t>
   </si>
 </sst>
 </file>
@@ -82,8 +88,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -94,18 +110,693 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cripto C ECB</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3443.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6147.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9537.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23969.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cripto D ECB</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>478.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1404.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6401.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18328.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24103.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AISS C ECB</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1353.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5027.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14900.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75476.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142721.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292888.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>515400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AISS D ECB</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2369.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7040.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18538.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92064.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188637.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>380612.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>726891.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Cripto C CBC</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>471.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2462.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5457.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14692.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23933.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Cripto D CBC</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$13:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1825.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3555.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12332.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23006.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>AISS C CBC</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1520.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4034.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9999.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52497.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102195.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197958.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399721.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>AISS D CBC</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$13:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2345.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6893.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17910.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94695.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180119.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>391198.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>723493.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="574587592"/>
+        <c:axId val="564948440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="574587592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="564948440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564948440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="574587592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -443,52 +1134,349 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="7" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0.5</v>
-      </c>
-      <c r="B2">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>169</v>
+      </c>
+      <c r="C3">
+        <v>1353</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>238</v>
+      </c>
+      <c r="G3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3087</v>
+        <v>266</v>
+      </c>
+      <c r="C4">
+        <v>5027</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>277</v>
+      </c>
+      <c r="G4">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>415</v>
+      </c>
+      <c r="C5">
+        <v>14900</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>471</v>
+      </c>
+      <c r="G5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>3443</v>
+      </c>
+      <c r="C6">
+        <v>75476</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>2462</v>
+      </c>
+      <c r="G6">
+        <v>52497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>6147</v>
+      </c>
+      <c r="C7">
+        <v>142721</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>5457</v>
+      </c>
+      <c r="G7">
+        <v>102195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>9537</v>
+      </c>
+      <c r="C8">
+        <v>292888</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>14692</v>
+      </c>
+      <c r="G8">
+        <v>197958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>400</v>
+      </c>
+      <c r="B9">
+        <v>23969</v>
+      </c>
+      <c r="C9">
+        <v>515400</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+      <c r="F9">
+        <v>23933</v>
+      </c>
+      <c r="G9">
+        <v>399721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>262</v>
+      </c>
+      <c r="C13">
+        <v>2369</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>223</v>
+      </c>
+      <c r="G13">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>306</v>
+      </c>
+      <c r="C14">
+        <v>7040</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>319</v>
+      </c>
+      <c r="G14">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>478</v>
+      </c>
+      <c r="C15">
+        <v>18538</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>641</v>
+      </c>
+      <c r="G15">
+        <v>17910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>1404</v>
+      </c>
+      <c r="C16">
+        <v>92064</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>1825</v>
+      </c>
+      <c r="G16">
+        <v>94695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>6401</v>
+      </c>
+      <c r="C17">
+        <v>188637</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>3555</v>
+      </c>
+      <c r="G17">
+        <v>180119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>18328</v>
+      </c>
+      <c r="C18">
+        <v>380612</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>12332</v>
+      </c>
+      <c r="G18">
+        <v>391198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>400</v>
+      </c>
+      <c r="B19">
+        <v>24103</v>
+      </c>
+      <c r="C19">
+        <v>726891</v>
+      </c>
+      <c r="E19">
+        <v>400</v>
+      </c>
+      <c r="F19">
+        <v>23006</v>
+      </c>
+      <c r="G19">
+        <v>723493</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
